--- a/data/trans_orig/P26-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P26-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>147526</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>127131</v>
+        <v>126022</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>171305</v>
+        <v>169168</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2770281975386235</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2387299237540661</v>
+        <v>0.23664797189501</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3216823138810099</v>
+        <v>0.3176688852728205</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>291</v>
@@ -765,19 +765,19 @@
         <v>302595</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>273688</v>
+        <v>276992</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>326192</v>
+        <v>332080</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3724162807146668</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3368399637001733</v>
+        <v>0.3409057149448524</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.401459036623589</v>
+        <v>0.4087051528336585</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>436</v>
@@ -786,19 +786,19 @@
         <v>450120</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>417129</v>
+        <v>415977</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>487459</v>
+        <v>482858</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3346503095567024</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.310122489740528</v>
+        <v>0.3092656587095516</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3624104565032142</v>
+        <v>0.3589897679986387</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>385004</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>361225</v>
+        <v>363362</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>405399</v>
+        <v>406508</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7229718024613766</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6783176861189902</v>
+        <v>0.6823311147271794</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7612700762459339</v>
+        <v>0.7633520281049899</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>490</v>
@@ -836,19 +836,19 @@
         <v>509922</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>486325</v>
+        <v>480437</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>538829</v>
+        <v>535525</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6275837192853332</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5985409633764109</v>
+        <v>0.5912948471663414</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6631600362998268</v>
+        <v>0.6590942850551477</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>870</v>
@@ -857,19 +857,19 @@
         <v>894927</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>857588</v>
+        <v>862189</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>927918</v>
+        <v>929070</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6653496904432976</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6375895434967855</v>
+        <v>0.6410102320013612</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6898775102594721</v>
+        <v>0.6907343412904484</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>280783</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>250496</v>
+        <v>254007</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>310354</v>
+        <v>309586</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2796770581724756</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2495089267646244</v>
+        <v>0.2530061616958338</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.309131143287439</v>
+        <v>0.3083665412538907</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>360</v>
@@ -982,19 +982,19 @@
         <v>371499</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>342744</v>
+        <v>340354</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>403008</v>
+        <v>402364</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3871972384612092</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3572265851442445</v>
+        <v>0.3547352833041871</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4200369613269765</v>
+        <v>0.4193661930252088</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>637</v>
@@ -1003,19 +1003,19 @@
         <v>652283</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>612285</v>
+        <v>607780</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>695617</v>
+        <v>696142</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3322188004484659</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3118474661986571</v>
+        <v>0.3095529487902833</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.354289485461028</v>
+        <v>0.3545570664991697</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>723172</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>693601</v>
+        <v>694369</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>753459</v>
+        <v>749948</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7203229418275243</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.690868856712561</v>
+        <v>0.6916334587461095</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7504910732353758</v>
+        <v>0.746993838304167</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>573</v>
@@ -1053,19 +1053,19 @@
         <v>587959</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>556450</v>
+        <v>557094</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>616714</v>
+        <v>619104</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6128027615387909</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5799630386730239</v>
+        <v>0.5806338069747913</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6427734148557556</v>
+        <v>0.645264716695813</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1278</v>
@@ -1074,19 +1074,19 @@
         <v>1311130</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1267796</v>
+        <v>1267271</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1351128</v>
+        <v>1355633</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.667781199551534</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.645710514538972</v>
+        <v>0.6454429335008309</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.688152533801343</v>
+        <v>0.6904470512097172</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>322755</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>290903</v>
+        <v>292116</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>352497</v>
+        <v>353887</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3052676785476051</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2751418010379288</v>
+        <v>0.2762893641028634</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3333985699892981</v>
+        <v>0.3347136594736982</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>350</v>
@@ -1199,19 +1199,19 @@
         <v>349052</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>320101</v>
+        <v>319858</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>378402</v>
+        <v>380541</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3724760223188997</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3415822939266872</v>
+        <v>0.341323168105977</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4037955474541012</v>
+        <v>0.4060779808949953</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>667</v>
@@ -1220,19 +1220,19 @@
         <v>671807</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>627598</v>
+        <v>627949</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>713034</v>
+        <v>715670</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3368470681431165</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3146806471831847</v>
+        <v>0.3148564339639895</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3575186618590246</v>
+        <v>0.3588404378699766</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>734529</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>704787</v>
+        <v>703397</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>766381</v>
+        <v>765168</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6947323214523949</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6666014300107018</v>
+        <v>0.6652863405263018</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7248581989620714</v>
+        <v>0.7237106358971367</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>578</v>
@@ -1270,19 +1270,19 @@
         <v>588061</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>558711</v>
+        <v>556572</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>617012</v>
+        <v>617255</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6275239776811002</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5962044525458986</v>
+        <v>0.5939220191050046</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6584177060733125</v>
+        <v>0.6586768318940229</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1305</v>
@@ -1291,19 +1291,19 @@
         <v>1322590</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1281363</v>
+        <v>1278727</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1366799</v>
+        <v>1366448</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6631529318568835</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6424813381409752</v>
+        <v>0.6411595621300236</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6853193528168153</v>
+        <v>0.6851435660360105</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>113533</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>95134</v>
+        <v>93869</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>132259</v>
+        <v>132428</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2712103340743679</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2272589396186298</v>
+        <v>0.2242369938862988</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3159434219083267</v>
+        <v>0.3163481791429024</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>107</v>
@@ -1416,19 +1416,19 @@
         <v>107250</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>90211</v>
+        <v>92011</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>123879</v>
+        <v>124014</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3322082492080747</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2794308880366819</v>
+        <v>0.2850062706311742</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3837169577124252</v>
+        <v>0.3841344191692754</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>214</v>
@@ -1437,19 +1437,19 @@
         <v>220783</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>197153</v>
+        <v>196135</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>246716</v>
+        <v>244698</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2977696785810432</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2658999730187896</v>
+        <v>0.2645269722996445</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3327446690311328</v>
+        <v>0.3300231376440169</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>305082</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>286356</v>
+        <v>286187</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>323481</v>
+        <v>324746</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7287896659256321</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6840565780916733</v>
+        <v>0.6836518208570977</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7727410603813702</v>
+        <v>0.7757630061137013</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>214</v>
@@ -1487,19 +1487,19 @@
         <v>215590</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>198961</v>
+        <v>198826</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>232629</v>
+        <v>230829</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6677917507919252</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6162830422875749</v>
+        <v>0.6158655808307247</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7205691119633181</v>
+        <v>0.7149937293688258</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>515</v>
@@ -1508,19 +1508,19 @@
         <v>520673</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>494740</v>
+        <v>496758</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>544303</v>
+        <v>545321</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7022303214189568</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6672553309688672</v>
+        <v>0.6699768623559832</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7341000269812104</v>
+        <v>0.7354730277003554</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>864596</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>814116</v>
+        <v>818363</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>915148</v>
+        <v>916407</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2870139877905055</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2702562394930945</v>
+        <v>0.2716661418028959</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3037953145456357</v>
+        <v>0.3042130545960489</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1108</v>
@@ -1633,19 +1633,19 @@
         <v>1130397</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1076002</v>
+        <v>1080760</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1183338</v>
+        <v>1180341</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3728308460231086</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3548903809745363</v>
+        <v>0.3564595447083282</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3902919563028712</v>
+        <v>0.389303756561795</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1954</v>
@@ -1654,19 +1654,19 @@
         <v>1994993</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1918905</v>
+        <v>1916168</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2067893</v>
+        <v>2063450</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.330061169803515</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3174728705022247</v>
+        <v>0.3170200322164128</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.342122169226695</v>
+        <v>0.3413869456412555</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>2147788</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2097236</v>
+        <v>2095977</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2198268</v>
+        <v>2194021</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7129860122094945</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6962046854543643</v>
+        <v>0.695786945403951</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7297437605069055</v>
+        <v>0.7283338581971039</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1855</v>
@@ -1704,19 +1704,19 @@
         <v>1901532</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1848591</v>
+        <v>1851588</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1955927</v>
+        <v>1951169</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6271691539768914</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6097080436971291</v>
+        <v>0.6106962434382051</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6451096190254638</v>
+        <v>0.6435404552916718</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3968</v>
@@ -1725,19 +1725,19 @@
         <v>4049320</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3976420</v>
+        <v>3980863</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4125408</v>
+        <v>4128145</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.669938830196485</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6578778307733051</v>
+        <v>0.6586130543587444</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6825271294977753</v>
+        <v>0.6829799677835869</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>372002</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>342522</v>
+        <v>340164</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>404562</v>
+        <v>401868</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3723454908174553</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3428380836281213</v>
+        <v>0.3404774258860716</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4049348698176083</v>
+        <v>0.4022385164012995</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>436</v>
@@ -2090,19 +2090,19 @@
         <v>467951</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>435808</v>
+        <v>439862</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>502151</v>
+        <v>500542</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4359226267547936</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4059794464602763</v>
+        <v>0.4097567100816812</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4677823459028085</v>
+        <v>0.4662830179835059</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>788</v>
@@ -2111,19 +2111,19 @@
         <v>839953</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>795555</v>
+        <v>797536</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>886592</v>
+        <v>882897</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4052751000383916</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3838534410720921</v>
+        <v>0.3848088706383264</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4277784009115563</v>
+        <v>0.4259955579487775</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>627076</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>594516</v>
+        <v>597210</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>656556</v>
+        <v>658914</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6276545091825447</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5950651301823917</v>
+        <v>0.5977614835987004</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6571619163718787</v>
+        <v>0.6595225741139281</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>552</v>
@@ -2161,19 +2161,19 @@
         <v>605521</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>571321</v>
+        <v>572930</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>637664</v>
+        <v>633610</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5640773732452065</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5322176540971915</v>
+        <v>0.5337169820164942</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5940205535397237</v>
+        <v>0.5902432899183188</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1137</v>
@@ -2182,19 +2182,19 @@
         <v>1232597</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1185958</v>
+        <v>1189653</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1276995</v>
+        <v>1275014</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5947248999616084</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5722215990884436</v>
+        <v>0.5740044420512224</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6161465589279078</v>
+        <v>0.6151911293616733</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>309948</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>281193</v>
+        <v>278700</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>340989</v>
+        <v>341258</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3300479675909185</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2994277381442474</v>
+        <v>0.2967736793130197</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3631013556787597</v>
+        <v>0.363387737066429</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>395</v>
@@ -2307,19 +2307,19 @@
         <v>428830</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>397336</v>
+        <v>397599</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>465858</v>
+        <v>459528</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4193851192180925</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3885845012560667</v>
+        <v>0.3888418510826745</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.455597689171751</v>
+        <v>0.4494069174069035</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>687</v>
@@ -2328,19 +2328,19 @@
         <v>738778</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>693516</v>
+        <v>694146</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>781080</v>
+        <v>783982</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3766161080195988</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3535419693765737</v>
+        <v>0.3538635304983211</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3981805426694056</v>
+        <v>0.3996603171897617</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>629153</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>598112</v>
+        <v>597843</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>657908</v>
+        <v>660401</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6699520324090815</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6368986443212403</v>
+        <v>0.6366122629335709</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7005722618557525</v>
+        <v>0.7032263206869804</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>558</v>
@@ -2378,19 +2378,19 @@
         <v>593691</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>556663</v>
+        <v>562993</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>625185</v>
+        <v>624922</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5806148807819075</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5444023108282493</v>
+        <v>0.5505930825930965</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6114154987439333</v>
+        <v>0.6111581489173251</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1155</v>
@@ -2399,19 +2399,19 @@
         <v>1222844</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1180542</v>
+        <v>1177640</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1268106</v>
+        <v>1267476</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6233838919804012</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6018194573305945</v>
+        <v>0.6003396828102383</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6464580306234264</v>
+        <v>0.6461364695016789</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>244857</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>220777</v>
+        <v>219376</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>271962</v>
+        <v>274882</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.287777073127829</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2594761788882021</v>
+        <v>0.2578292322587233</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3196335160591653</v>
+        <v>0.323065106569974</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>256</v>
@@ -2524,19 +2524,19 @@
         <v>266525</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>240160</v>
+        <v>239427</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>294056</v>
+        <v>292059</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3241955086171232</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.292125399099676</v>
+        <v>0.2912331228612956</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3576833388864433</v>
+        <v>0.3552534849917479</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>488</v>
@@ -2545,19 +2545,19 @@
         <v>511382</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>472134</v>
+        <v>475113</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>551952</v>
+        <v>548747</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3056734374186656</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.282212951345429</v>
+        <v>0.2839942039321839</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3299234504728246</v>
+        <v>0.3280081150108697</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>605999</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>578894</v>
+        <v>575974</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>630079</v>
+        <v>631480</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.712222926872171</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6803664839408345</v>
+        <v>0.6769348934300262</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7405238211117979</v>
+        <v>0.7421707677412768</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>517</v>
@@ -2595,19 +2595,19 @@
         <v>555588</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>528057</v>
+        <v>530054</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>581953</v>
+        <v>582686</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6758044913828768</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6423166611135568</v>
+        <v>0.6447465150082521</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7078746009003242</v>
+        <v>0.7087668771387043</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1082</v>
@@ -2616,19 +2616,19 @@
         <v>1161587</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1121017</v>
+        <v>1124222</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1200835</v>
+        <v>1197856</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6943265625813344</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6700765495271754</v>
+        <v>0.6719918849891302</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7177870486545711</v>
+        <v>0.7160057960678158</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>149959</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>131017</v>
+        <v>129999</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>172045</v>
+        <v>171939</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3158162032743339</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2759235679638984</v>
+        <v>0.2737796901312238</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3623304560691841</v>
+        <v>0.3621054514246191</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>124</v>
@@ -2741,19 +2741,19 @@
         <v>134884</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>113830</v>
+        <v>115713</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>154146</v>
+        <v>155539</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.314341822778461</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2652767059592357</v>
+        <v>0.2696655246840839</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3592297835940892</v>
+        <v>0.3624769124417225</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>263</v>
@@ -2762,19 +2762,19 @@
         <v>284843</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>254478</v>
+        <v>257647</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>311374</v>
+        <v>318826</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3151163083389814</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2815235294916389</v>
+        <v>0.2850302947665922</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3444667510062751</v>
+        <v>0.3527114455995102</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>324871</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>302785</v>
+        <v>302891</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>343813</v>
+        <v>344831</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6841837967256661</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.637669543930816</v>
+        <v>0.637894548575381</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7240764320361017</v>
+        <v>0.7262203098687764</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>268</v>
@@ -2812,19 +2812,19 @@
         <v>294216</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>274954</v>
+        <v>273561</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>315270</v>
+        <v>313387</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.685658177221539</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6407702164059107</v>
+        <v>0.6375230875582776</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7347232940407642</v>
+        <v>0.7303344753159164</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>567</v>
@@ -2833,19 +2833,19 @@
         <v>619087</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>592556</v>
+        <v>585104</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>649452</v>
+        <v>646283</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6848836916610186</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.655533248993725</v>
+        <v>0.64728855440049</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7184764705083611</v>
+        <v>0.7149697052334079</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>1076767</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1019185</v>
+        <v>1020662</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1134182</v>
+        <v>1132136</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3299053177102521</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3122630718424251</v>
+        <v>0.3127155351584142</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3474964236926541</v>
+        <v>0.3468696171298914</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1211</v>
@@ -2958,19 +2958,19 @@
         <v>1298190</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1241352</v>
+        <v>1245418</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1360614</v>
+        <v>1359768</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.387842956451061</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3708621833392448</v>
+        <v>0.3720769089877478</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4064926693610132</v>
+        <v>0.4062397789208758</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2226</v>
@@ -2979,19 +2979,19 @@
         <v>2374957</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2295236</v>
+        <v>2294404</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2453561</v>
+        <v>2451772</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3592393163634732</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3471806337457492</v>
+        <v>0.3470548743675441</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3711290769271981</v>
+        <v>0.3708585265714454</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>2187099</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2129684</v>
+        <v>2131730</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2244681</v>
+        <v>2243204</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.670094682289748</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6525035763073459</v>
+        <v>0.6531303828701086</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6877369281575749</v>
+        <v>0.6872844648415858</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1895</v>
@@ -3029,19 +3029,19 @@
         <v>2049015</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1986591</v>
+        <v>1987437</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2105853</v>
+        <v>2101787</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.612157043548939</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5935073306389868</v>
+        <v>0.5937602210791242</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6291378166607552</v>
+        <v>0.6279230910122522</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3941</v>
@@ -3050,19 +3050,19 @@
         <v>4236114</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4157510</v>
+        <v>4159299</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4315835</v>
+        <v>4316667</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6407606836365268</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6288709230728019</v>
+        <v>0.6291414734285549</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6528193662542509</v>
+        <v>0.6529451256324559</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>339961</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>307512</v>
+        <v>309565</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>370418</v>
+        <v>370494</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3224160434185633</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2916415521717988</v>
+        <v>0.2935887282068858</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.351301366668867</v>
+        <v>0.3513730132244103</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>353</v>
@@ -3415,19 +3415,19 @@
         <v>370077</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>339211</v>
+        <v>335601</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>405827</v>
+        <v>400782</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3158351235851513</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2894924831948307</v>
+        <v>0.2864123159234824</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3463452692818538</v>
+        <v>0.3420392260314791</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>670</v>
@@ -3436,19 +3436,19 @@
         <v>710038</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>665491</v>
+        <v>664479</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>753841</v>
+        <v>755331</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3189521677706439</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2989412691252876</v>
+        <v>0.2984868694879492</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3386285509668267</v>
+        <v>0.3392978038938184</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>714457</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>684000</v>
+        <v>683924</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>746906</v>
+        <v>744853</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6775839565814368</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6486986333311331</v>
+        <v>0.6486269867755897</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7083584478282012</v>
+        <v>0.7064112717931142</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>755</v>
@@ -3486,19 +3486,19 @@
         <v>801665</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>765915</v>
+        <v>770960</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>832531</v>
+        <v>836141</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6841648764148487</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6536547307181462</v>
+        <v>0.6579607739685209</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7105075168051693</v>
+        <v>0.7135876840765175</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1437</v>
@@ -3507,19 +3507,19 @@
         <v>1516121</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1472318</v>
+        <v>1470828</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1560668</v>
+        <v>1561680</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6810478322293562</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6613714490331732</v>
+        <v>0.6607021961061816</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7010587308747124</v>
+        <v>0.7015131305120509</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>211956</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>186389</v>
+        <v>187683</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>237026</v>
+        <v>238267</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2523593882675398</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2219191634655634</v>
+        <v>0.2234592560572801</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2822080407139471</v>
+        <v>0.2836860075221415</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>249</v>
@@ -3632,19 +3632,19 @@
         <v>256657</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>230532</v>
+        <v>229359</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>286267</v>
+        <v>287842</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2737788345440461</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2459110911226603</v>
+        <v>0.244659985284229</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3053640470390472</v>
+        <v>0.307043793453738</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>453</v>
@@ -3653,19 +3653,19 @@
         <v>468613</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>428800</v>
+        <v>435239</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>504064</v>
+        <v>507111</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2636569867600382</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2412570837847464</v>
+        <v>0.2448796802533781</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2836029995840235</v>
+        <v>0.2853170404376926</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>627942</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>602872</v>
+        <v>601631</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>653509</v>
+        <v>652215</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7476406117324601</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7177919592860529</v>
+        <v>0.7163139924778583</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7780808365344365</v>
+        <v>0.7765407439427197</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>641</v>
@@ -3703,19 +3703,19 @@
         <v>680804</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>651194</v>
+        <v>649619</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>706929</v>
+        <v>708102</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7262211654559539</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6946359529609529</v>
+        <v>0.6929562065462621</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7540889088773399</v>
+        <v>0.7553400147157711</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1249</v>
@@ -3724,19 +3724,19 @@
         <v>1308746</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1273295</v>
+        <v>1270248</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1348559</v>
+        <v>1342120</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7363430132399618</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7163970004159766</v>
+        <v>0.7146829595623073</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7587429162152538</v>
+        <v>0.7551203197466219</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>138355</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>115975</v>
+        <v>118187</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>160968</v>
+        <v>161405</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1794966144531078</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1504610944385529</v>
+        <v>0.1533306152083535</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2088333934249151</v>
+        <v>0.2094001184433517</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>131</v>
@@ -3849,19 +3849,19 @@
         <v>134348</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>114338</v>
+        <v>115032</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>156271</v>
+        <v>155319</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1877872556396812</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1598183065605364</v>
+        <v>0.1607878656391681</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2184306367663814</v>
+        <v>0.217100487081409</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>259</v>
@@ -3870,19 +3870,19 @@
         <v>272703</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>243466</v>
+        <v>243022</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>306700</v>
+        <v>306255</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1834874941069987</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1638150660034013</v>
+        <v>0.1635167896091327</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2063621341555931</v>
+        <v>0.2060627156919523</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>632442</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>609829</v>
+        <v>609392</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>654822</v>
+        <v>652610</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8205033855468923</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7911666065750849</v>
+        <v>0.7905998815566482</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8495389055614472</v>
+        <v>0.8466693847916464</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>548</v>
@@ -3920,19 +3920,19 @@
         <v>581078</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>559155</v>
+        <v>560107</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>601088</v>
+        <v>600394</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8122127443603188</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7815693632336186</v>
+        <v>0.7828995129185911</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8401816934394637</v>
+        <v>0.839212134360832</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1156</v>
@@ -3941,19 +3941,19 @@
         <v>1213520</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1179523</v>
+        <v>1179968</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1242757</v>
+        <v>1243201</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8165125058930013</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7936378658444069</v>
+        <v>0.7939372843080477</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8361849339965988</v>
+        <v>0.8364832103908673</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>99360</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>83136</v>
+        <v>82060</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>118720</v>
+        <v>119342</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2161020191939905</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1808156211351094</v>
+        <v>0.1784757530735634</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.258208216705149</v>
+        <v>0.2595605092797371</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>106</v>
@@ -4066,19 +4066,19 @@
         <v>112414</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>93332</v>
+        <v>93364</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>129599</v>
+        <v>132363</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2537224837469874</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2106527810444236</v>
+        <v>0.2107250262140835</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2925088795021875</v>
+        <v>0.2987474157002152</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>197</v>
@@ -4087,19 +4087,19 @@
         <v>211774</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>186086</v>
+        <v>188598</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>238385</v>
+        <v>238122</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2345638213904646</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.206110877679785</v>
+        <v>0.2088936263362066</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2640383429487411</v>
+        <v>0.2637467647130285</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>360423</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>341063</v>
+        <v>340441</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>376647</v>
+        <v>377723</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7838979808060095</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7417917832948511</v>
+        <v>0.7404394907202628</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8191843788648906</v>
+        <v>0.8215242469264364</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>309</v>
@@ -4137,19 +4137,19 @@
         <v>330645</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>313460</v>
+        <v>310696</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>349727</v>
+        <v>349695</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7462775162530126</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7074911204978127</v>
+        <v>0.7012525842997849</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7893472189555765</v>
+        <v>0.7892749737859166</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>645</v>
@@ -4158,19 +4158,19 @@
         <v>691068</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>664457</v>
+        <v>664720</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>716756</v>
+        <v>714244</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7654361786095354</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7359616570512589</v>
+        <v>0.7362532352869716</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.793889122320215</v>
+        <v>0.7911063736637934</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>789633</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>743706</v>
+        <v>741193</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>837422</v>
+        <v>843023</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2526909225664711</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2379937262979087</v>
+        <v>0.2371897530731712</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.267983857464536</v>
+        <v>0.2697762822780749</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>839</v>
@@ -4283,19 +4283,19 @@
         <v>873496</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>824012</v>
+        <v>823852</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>924934</v>
+        <v>927461</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2673132163643235</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2521698586031976</v>
+        <v>0.2521207900068104</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2830546231629219</v>
+        <v>0.283828089587717</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1579</v>
@@ -4304,19 +4304,19 @@
         <v>1663129</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1594865</v>
+        <v>1596644</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1730689</v>
+        <v>1733751</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2601653786211488</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2494867770414938</v>
+        <v>0.2497650347896207</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2707338519595008</v>
+        <v>0.2712128325458844</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>2335263</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2287474</v>
+        <v>2281873</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2381190</v>
+        <v>2383703</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7473090774335288</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.732016142535464</v>
+        <v>0.7302237177219251</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7620062737020913</v>
+        <v>0.7628102469268291</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2253</v>
@@ -4354,19 +4354,19 @@
         <v>2394191</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2342753</v>
+        <v>2340226</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2443675</v>
+        <v>2443835</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7326867836356765</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.716945376837078</v>
+        <v>0.7161719104122828</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7478301413968023</v>
+        <v>0.7478792099931896</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4487</v>
@@ -4375,19 +4375,19 @@
         <v>4729455</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4661895</v>
+        <v>4658833</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4797719</v>
+        <v>4795940</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7398346213788513</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7292661480404989</v>
+        <v>0.7287871674541155</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7505132229585059</v>
+        <v>0.7502349652103787</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>71833</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>55104</v>
+        <v>55642</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>89889</v>
+        <v>91515</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.172512433011387</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1323363611226686</v>
+        <v>0.1336280499770063</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2158759413992202</v>
+        <v>0.2197798626029603</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>119</v>
@@ -4740,19 +4740,19 @@
         <v>90985</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>75914</v>
+        <v>76980</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>110016</v>
+        <v>109907</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1663089570402404</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1387611097600056</v>
+        <v>0.1407108601977211</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2010957180085709</v>
+        <v>0.2008958597304002</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>180</v>
@@ -4761,19 +4761,19 @@
         <v>162818</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>141020</v>
+        <v>140034</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>189814</v>
+        <v>188863</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1689899660436154</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1463661679769787</v>
+        <v>0.1453423856717003</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1970094779109599</v>
+        <v>0.1960226675691471</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>344560</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>326504</v>
+        <v>324878</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>361289</v>
+        <v>360751</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.827487566988613</v>
+        <v>0.8274875669886131</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7841240586007796</v>
+        <v>0.7802201373970399</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8676636388773312</v>
+        <v>0.8663719500229938</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>616</v>
@@ -4811,19 +4811,19 @@
         <v>456097</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>437066</v>
+        <v>437175</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>471168</v>
+        <v>470102</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8336910429597596</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7989042819914293</v>
+        <v>0.7991041402696001</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8612388902399944</v>
+        <v>0.8592891398022794</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>930</v>
@@ -4832,19 +4832,19 @@
         <v>800657</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>773661</v>
+        <v>774612</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>822455</v>
+        <v>823441</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8310100339563847</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8029905220890402</v>
+        <v>0.8039773324308529</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8536338320230212</v>
+        <v>0.8546576143282998</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>73306</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>54935</v>
+        <v>56444</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>96251</v>
+        <v>101000</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08396285420088713</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06292210945442821</v>
+        <v>0.06464974375340704</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1102446241788577</v>
+        <v>0.115683368600514</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>171</v>
@@ -4957,19 +4957,19 @@
         <v>131766</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>113092</v>
+        <v>113185</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>154819</v>
+        <v>154149</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.131858714096228</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1131717193015538</v>
+        <v>0.1132639722680855</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1549273612632832</v>
+        <v>0.1542572087490212</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>228</v>
@@ -4978,19 +4978,19 @@
         <v>205072</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>179880</v>
+        <v>179904</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>235618</v>
+        <v>234240</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1095252789154581</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09607053308327494</v>
+        <v>0.09608372330771367</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1258395744805617</v>
+        <v>0.1251032770169785</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>799765</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>776820</v>
+        <v>772071</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>818136</v>
+        <v>816627</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9160371457991129</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8897553758211424</v>
+        <v>0.8843166313994861</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9370778905455719</v>
+        <v>0.9353502562465928</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1248</v>
@@ -5028,19 +5028,19 @@
         <v>867534</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>844481</v>
+        <v>845151</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>886208</v>
+        <v>886115</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8681412859037719</v>
+        <v>0.868141285903772</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8450726387367167</v>
+        <v>0.8457427912509788</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8868282806984461</v>
+        <v>0.8867360277319145</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2012</v>
@@ -5049,19 +5049,19 @@
         <v>1667299</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1636753</v>
+        <v>1638131</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1692491</v>
+        <v>1692467</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8904747210845418</v>
+        <v>0.890474721084542</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8741604255194385</v>
+        <v>0.8748967229830216</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.903929466916725</v>
+        <v>0.9039162766922865</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>97932</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>77141</v>
+        <v>76594</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>123210</v>
+        <v>122478</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1029317859143649</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08107936747997768</v>
+        <v>0.08050424372362079</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1295004126162187</v>
+        <v>0.1287307256464306</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>168</v>
@@ -5174,19 +5174,19 @@
         <v>128885</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>109917</v>
+        <v>109764</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>150605</v>
+        <v>148645</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1337315155233478</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1140507881850919</v>
+        <v>0.1138917360171831</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.156268106243971</v>
+        <v>0.1542342934851724</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>251</v>
@@ -5195,19 +5195,19 @@
         <v>226817</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>196668</v>
+        <v>200146</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>259041</v>
+        <v>260047</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1184308270231125</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1026890537670009</v>
+        <v>0.1045050616989364</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.135256509493046</v>
+        <v>0.1357815883918891</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>853493</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>828215</v>
+        <v>828947</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>874284</v>
+        <v>874831</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.897068214085635</v>
+        <v>0.8970682140856352</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8704995873837802</v>
+        <v>0.8712692743535692</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.918920632520022</v>
+        <v>0.9194957562763791</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1205</v>
@@ -5245,19 +5245,19 @@
         <v>834873</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>813153</v>
+        <v>815113</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>853841</v>
+        <v>853994</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8662684844766522</v>
+        <v>0.8662684844766523</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8437318937560291</v>
+        <v>0.8457657065148276</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8859492118149085</v>
+        <v>0.8861082639828169</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2052</v>
@@ -5266,19 +5266,19 @@
         <v>1688366</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1656142</v>
+        <v>1655136</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1718515</v>
+        <v>1715037</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8815691729768874</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8647434905069539</v>
+        <v>0.8642184116081116</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8973109462329991</v>
+        <v>0.8954949383010636</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>110734</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>89368</v>
+        <v>85760</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>136376</v>
+        <v>135066</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1214462333672024</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09801325151986279</v>
+        <v>0.09405652544878167</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.149568193092912</v>
+        <v>0.1481317908159534</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>142</v>
@@ -5391,19 +5391,19 @@
         <v>111434</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>94916</v>
+        <v>93789</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>134340</v>
+        <v>131204</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1284155739867035</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1093809500061392</v>
+        <v>0.1080813730574251</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1548125413023847</v>
+        <v>0.1511985973049005</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>230</v>
@@ -5412,19 +5412,19 @@
         <v>222168</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>193961</v>
+        <v>196929</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>255541</v>
+        <v>253827</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1248446713819652</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1089938254312098</v>
+        <v>0.1106616254476038</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.143598202066703</v>
+        <v>0.1426349002493676</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>801063</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>775421</v>
+        <v>776731</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>822429</v>
+        <v>826037</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8785537666327975</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8504318069070882</v>
+        <v>0.8518682091840466</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9019867484801375</v>
+        <v>0.9059434745512185</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1110</v>
@@ -5462,19 +5462,19 @@
         <v>756326</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>733420</v>
+        <v>736556</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>772844</v>
+        <v>773971</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8715844260132966</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8451874586976152</v>
+        <v>0.8488014026950995</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8906190499938607</v>
+        <v>0.8919186269425748</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1913</v>
@@ -5483,19 +5483,19 @@
         <v>1557389</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1524016</v>
+        <v>1525730</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1585596</v>
+        <v>1582628</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8751553286180348</v>
+        <v>0.8751553286180347</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8564017979332971</v>
+        <v>0.8573650997506324</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8910061745687902</v>
+        <v>0.8893383745523961</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>353805</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>312243</v>
+        <v>307241</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>398080</v>
+        <v>394922</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1122232609532554</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09904041774084174</v>
+        <v>0.09745381185799665</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1262669340833172</v>
+        <v>0.1252653893096218</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>600</v>
@@ -5608,19 +5608,19 @@
         <v>463070</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>425256</v>
+        <v>427786</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>499550</v>
+        <v>501558</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.1370880595541472</v>
+        <v>0.1370880595541471</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1258936296431996</v>
+        <v>0.1266427105731749</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1478878510754064</v>
+        <v>0.1484821831898351</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>889</v>
@@ -5629,19 +5629,19 @@
         <v>816874</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>767207</v>
+        <v>752800</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>884147</v>
+        <v>872966</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1250844057309348</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1174791098714909</v>
+        <v>0.1152729614144451</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1353855628620766</v>
+        <v>0.133673442747594</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>2798881</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2754606</v>
+        <v>2757764</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2840443</v>
+        <v>2845445</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8877767390467447</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8737330659166832</v>
+        <v>0.8747346106903781</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9009595822591584</v>
+        <v>0.9025461881420034</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4179</v>
@@ -5679,19 +5679,19 @@
         <v>2914830</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2878350</v>
+        <v>2876342</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2952644</v>
+        <v>2950114</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8629119404458531</v>
+        <v>0.8629119404458528</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.852112148924594</v>
+        <v>0.8515178168101656</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8741063703568004</v>
+        <v>0.8733572894268252</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6907</v>
@@ -5700,19 +5700,19 @@
         <v>5713712</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5646439</v>
+        <v>5657620</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5763379</v>
+        <v>5777786</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8749155942690652</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8646144371379235</v>
+        <v>0.866326557252406</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8825208901285091</v>
+        <v>0.8847270385855549</v>
       </c>
     </row>
     <row r="18">
